--- a/LubanTool/Gen/Datas/ActiveSkill.xlsx
+++ b/LubanTool/Gen/Datas/ActiveSkill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Study\2025\ARPGLearning\LubanTool\Gen\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D519793-211E-44B4-9B2B-2AF01C0CC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="25485" windowHeight="15105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -100,14 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>骑士技能1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>passiveSkill</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -120,34 +118,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>弓箭手技能1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师技能1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长枪士技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长枪士技能1</t>
+    <t>露西技能1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>露西技能2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,18 +500,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -585,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -610,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -618,10 +600,10 @@
         <v>100101</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -632,99 +614,12 @@
         <v>100102</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>100201</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>100202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>100301</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>100303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>100302</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>100401</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>100402</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
         <v>1</v>
       </c>
     </row>
